--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tgfb2-Tgfbr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tgfb2-Tgfbr3.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.465615333333333</v>
+        <v>1.609586333333333</v>
       </c>
       <c r="H2">
-        <v>4.396846</v>
+        <v>4.828759</v>
       </c>
       <c r="I2">
-        <v>0.04672291954663727</v>
+        <v>0.05107819292772156</v>
       </c>
       <c r="J2">
-        <v>0.04672291954663728</v>
+        <v>0.05107819292772156</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.85604233333333</v>
+        <v>14.11187666666667</v>
       </c>
       <c r="N2">
-        <v>44.568127</v>
+        <v>42.33562999999999</v>
       </c>
       <c r="O2">
-        <v>0.09286934904108346</v>
+        <v>0.08862966207485527</v>
       </c>
       <c r="P2">
-        <v>0.09286934904108346</v>
+        <v>0.08862966207485526</v>
       </c>
       <c r="Q2">
-        <v>21.77324343638244</v>
+        <v>22.71428382035222</v>
       </c>
       <c r="R2">
-        <v>195.959190927442</v>
+        <v>204.42855438317</v>
       </c>
       <c r="S2">
-        <v>0.004339127123595118</v>
+        <v>0.004527042978578225</v>
       </c>
       <c r="T2">
-        <v>0.004339127123595118</v>
+        <v>0.004527042978578224</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.465615333333333</v>
+        <v>1.609586333333333</v>
       </c>
       <c r="H3">
-        <v>4.396846</v>
+        <v>4.828759</v>
       </c>
       <c r="I3">
-        <v>0.04672291954663727</v>
+        <v>0.05107819292772156</v>
       </c>
       <c r="J3">
-        <v>0.04672291954663728</v>
+        <v>0.05107819292772156</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>342.820243</v>
       </c>
       <c r="O3">
-        <v>0.7143556381787382</v>
+        <v>0.7176943460983047</v>
       </c>
       <c r="P3">
-        <v>0.7143556381787382</v>
+        <v>0.7176943460983046</v>
       </c>
       <c r="Q3">
-        <v>167.4808682392865</v>
+        <v>183.9329259742708</v>
       </c>
       <c r="R3">
-        <v>1507.327814153578</v>
+        <v>1655.396333768437</v>
       </c>
       <c r="S3">
-        <v>0.03337678101031191</v>
+        <v>0.03665853027314418</v>
       </c>
       <c r="T3">
-        <v>0.03337678101031191</v>
+        <v>0.03665853027314418</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.465615333333333</v>
+        <v>1.609586333333333</v>
       </c>
       <c r="H4">
-        <v>4.396846</v>
+        <v>4.828759</v>
       </c>
       <c r="I4">
-        <v>0.04672291954663727</v>
+        <v>0.05107819292772156</v>
       </c>
       <c r="J4">
-        <v>0.04672291954663728</v>
+        <v>0.05107819292772156</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>92.512991</v>
       </c>
       <c r="O4">
-        <v>0.1927750127801784</v>
+        <v>0.1936759918268401</v>
       </c>
       <c r="P4">
-        <v>0.1927750127801784</v>
+        <v>0.1936759918268401</v>
       </c>
       <c r="Q4">
-        <v>45.19615271404289</v>
+        <v>49.63588198979656</v>
       </c>
       <c r="R4">
-        <v>406.765374426386</v>
+        <v>446.722937908169</v>
       </c>
       <c r="S4">
-        <v>0.009007011412730246</v>
+        <v>0.009892619675999165</v>
       </c>
       <c r="T4">
-        <v>0.009007011412730248</v>
+        <v>0.009892619675999163</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>56.64711800000001</v>
       </c>
       <c r="I5">
-        <v>0.6019584804341267</v>
+        <v>0.5992082897496871</v>
       </c>
       <c r="J5">
-        <v>0.6019584804341268</v>
+        <v>0.5992082897496871</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.85604233333333</v>
+        <v>14.11187666666667</v>
       </c>
       <c r="N5">
-        <v>44.568127</v>
+        <v>42.33562999999999</v>
       </c>
       <c r="O5">
-        <v>0.09286934904108346</v>
+        <v>0.08862966207485527</v>
       </c>
       <c r="P5">
-        <v>0.09286934904108346</v>
+        <v>0.08862966207485526</v>
       </c>
       <c r="Q5">
-        <v>280.5173276897763</v>
+        <v>266.4657142460378</v>
       </c>
       <c r="R5">
-        <v>2524.655949207986</v>
+        <v>2398.19142821434</v>
       </c>
       <c r="S5">
-        <v>0.05590349222767712</v>
+        <v>0.05310762823296673</v>
       </c>
       <c r="T5">
-        <v>0.05590349222767713</v>
+        <v>0.05310762823296673</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>56.64711800000001</v>
       </c>
       <c r="I6">
-        <v>0.6019584804341267</v>
+        <v>0.5992082897496871</v>
       </c>
       <c r="J6">
-        <v>0.6019584804341268</v>
+        <v>0.5992082897496871</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>342.820243</v>
       </c>
       <c r="O6">
-        <v>0.7143556381787382</v>
+        <v>0.7176943460983047</v>
       </c>
       <c r="P6">
-        <v>0.7143556381787382</v>
+        <v>0.7176943460983046</v>
       </c>
       <c r="Q6">
         <v>2157.753195334409</v>
@@ -818,10 +818,10 @@
         <v>19419.77875800968</v>
       </c>
       <c r="S6">
-        <v>0.430012434447624</v>
+        <v>0.4300484016885852</v>
       </c>
       <c r="T6">
-        <v>0.4300124344476241</v>
+        <v>0.4300484016885851</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>56.64711800000001</v>
       </c>
       <c r="I7">
-        <v>0.6019584804341267</v>
+        <v>0.5992082897496871</v>
       </c>
       <c r="J7">
-        <v>0.6019584804341268</v>
+        <v>0.5992082897496871</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>92.512991</v>
       </c>
       <c r="O7">
-        <v>0.1927750127801784</v>
+        <v>0.1936759918268401</v>
       </c>
       <c r="P7">
-        <v>0.1927750127801784</v>
+        <v>0.1936759918268401</v>
       </c>
       <c r="Q7">
         <v>582.2882575233265</v>
@@ -880,10 +880,10 @@
         <v>5240.594317709939</v>
       </c>
       <c r="S7">
-        <v>0.1160425537588255</v>
+        <v>0.1160522598281353</v>
       </c>
       <c r="T7">
-        <v>0.1160425537588256</v>
+        <v>0.1160522598281352</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,13 +909,13 @@
         <v>11.020243</v>
       </c>
       <c r="H8">
-        <v>33.06072899999999</v>
+        <v>33.060729</v>
       </c>
       <c r="I8">
-        <v>0.351318600019236</v>
+        <v>0.3497135173225914</v>
       </c>
       <c r="J8">
-        <v>0.351318600019236</v>
+        <v>0.3497135173225914</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.85604233333333</v>
+        <v>14.11187666666667</v>
       </c>
       <c r="N8">
-        <v>44.568127</v>
+        <v>42.33562999999999</v>
       </c>
       <c r="O8">
-        <v>0.09286934904108346</v>
+        <v>0.08862966207485527</v>
       </c>
       <c r="P8">
-        <v>0.09286934904108346</v>
+        <v>0.08862966207485526</v>
       </c>
       <c r="Q8">
-        <v>163.7171965316203</v>
+        <v>155.5163100526967</v>
       </c>
       <c r="R8">
-        <v>1473.454768784583</v>
+        <v>1399.64679047427</v>
       </c>
       <c r="S8">
-        <v>0.03262672968981122</v>
+        <v>0.03099499086331032</v>
       </c>
       <c r="T8">
-        <v>0.03262672968981122</v>
+        <v>0.03099499086331032</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>11.020243</v>
       </c>
       <c r="H9">
-        <v>33.06072899999999</v>
+        <v>33.060729</v>
       </c>
       <c r="I9">
-        <v>0.351318600019236</v>
+        <v>0.3497135173225914</v>
       </c>
       <c r="J9">
-        <v>0.351318600019236</v>
+        <v>0.3497135173225914</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>342.820243</v>
       </c>
       <c r="O9">
-        <v>0.7143556381787382</v>
+        <v>0.7176943460983047</v>
       </c>
       <c r="P9">
-        <v>0.7143556381787382</v>
+        <v>0.7176943460983046</v>
       </c>
       <c r="Q9">
-        <v>1259.320794393016</v>
+        <v>1259.320794393017</v>
       </c>
       <c r="R9">
         <v>11333.88714953715</v>
       </c>
       <c r="S9">
-        <v>0.2509664227208022</v>
+        <v>0.2509874141365754</v>
       </c>
       <c r="T9">
-        <v>0.2509664227208022</v>
+        <v>0.2509874141365754</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>11.020243</v>
       </c>
       <c r="H10">
-        <v>33.06072899999999</v>
+        <v>33.060729</v>
       </c>
       <c r="I10">
-        <v>0.351318600019236</v>
+        <v>0.3497135173225914</v>
       </c>
       <c r="J10">
-        <v>0.351318600019236</v>
+        <v>0.3497135173225914</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>92.512991</v>
       </c>
       <c r="O10">
-        <v>0.1927750127801784</v>
+        <v>0.1936759918268401</v>
       </c>
       <c r="P10">
-        <v>0.1927750127801784</v>
+        <v>0.1936759918268401</v>
       </c>
       <c r="Q10">
         <v>339.8385471589377</v>
@@ -1066,10 +1066,10 @@
         <v>3058.546924430439</v>
       </c>
       <c r="S10">
-        <v>0.06772544760862259</v>
+        <v>0.06773111232270573</v>
       </c>
       <c r="T10">
-        <v>0.06772544760862259</v>
+        <v>0.06773111232270573</v>
       </c>
     </row>
   </sheetData>
